--- a/python/models/Regressors/results/regression_results.xlsx
+++ b/python/models/Regressors/results/regression_results.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="460" windowWidth="11580" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12220" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>Step</t>
   </si>
@@ -54,13 +54,199 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Links per Species</t>
+  </si>
+  <si>
+    <t>Conclusions:</t>
+  </si>
+  <si>
+    <t>Questions:</t>
+  </si>
+  <si>
+    <t>Why did the dnn do better than cnn for connectance</t>
+  </si>
+  <si>
+    <t>Why is there such low loss for connectance</t>
+  </si>
+  <si>
+    <t>Seems to be a 'loss' limit for links per species… i wonder why</t>
+  </si>
+  <si>
+    <t>the cnn_lstm performs the best of all models on all regression tasks.</t>
+  </si>
+  <si>
+    <t>the dnn does on average worse.</t>
+  </si>
+  <si>
+    <t>the cnn outperforms the dnn on 2/3 of the regression tasks.</t>
+  </si>
+  <si>
+    <t>Regression (Results shown on left)</t>
+  </si>
+  <si>
+    <t>Classification (Results shown in paper)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D_N</t>
+  </si>
+  <si>
+    <t>D_3</t>
+  </si>
+  <si>
+    <t>D_4</t>
+  </si>
+  <si>
+    <t>D_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t>If we are going to use data set D, just use DNN it seems to do better</t>
+  </si>
+  <si>
+    <t>CNN_LSTM does better on almost all other datasets</t>
+  </si>
+  <si>
+    <t>D5 data set is not great… 1 class takes up 80% and the classifiers got lazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whats up with D? it has an opposite order from D_N, D_3, D_4. Maybe </t>
+  </si>
+  <si>
+    <t>the cnn/cnn_lstm take longer to learn on the more complex data</t>
+  </si>
+  <si>
+    <t>How can we make D_5 more balanced?</t>
+  </si>
+  <si>
+    <t>General Conclusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd go with the CNN_LSTM if I had to choose one model. </t>
+  </si>
+  <si>
+    <t>Regression is more powerful for this application than classification, and that’s where the CNN_LSTM</t>
+  </si>
+  <si>
+    <t>excels.</t>
+  </si>
+  <si>
+    <t>D_N (the number of species in a network) can be seen as a type of regression, where the result is</t>
+  </si>
+  <si>
+    <t>rounded to the nearest indivudual. CNN_LSTM excels there</t>
+  </si>
+  <si>
+    <t>What is the relationship between specific algorithms and network properties that explain performance?</t>
+  </si>
+  <si>
+    <t>That could provide some insights on time series properties that are associated with food web topologies.</t>
+  </si>
+  <si>
+    <t>Some of these properties might not be detectable using standard time series statistics.</t>
+  </si>
+  <si>
+    <t>Number of Species</t>
+  </si>
+  <si>
+    <t>Relate topological metric to algorithms/stats in relation to performance</t>
+  </si>
+  <si>
+    <t>a) Deep Learning</t>
+  </si>
+  <si>
+    <t>b) Topological Metrics</t>
+  </si>
+  <si>
+    <t>c) Ecology (from a and b)</t>
+  </si>
+  <si>
+    <t>Ecologically, what is the food web topology metric that is easiest?</t>
+  </si>
+  <si>
+    <t>Average Loss over Regressors</t>
+  </si>
+  <si>
+    <t>The connectance was by far the 'easiest' to regress. Followed by Links-per species and then by characteristic length. This is based</t>
+  </si>
+  <si>
+    <t>off the low loss score.  If we look at the values for the metrics we see that connectance ALWAYS has a much lower value than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">links/species or characteristic path length. This may explain why loss is so low, however the metrics for links/species and </t>
+  </si>
+  <si>
+    <t>and characterstic path length have similar values and we see that the average loss between them is almost off by a factor of 2.</t>
+  </si>
+  <si>
+    <t>This implies that indeed different metrics are easier than others.</t>
+  </si>
+  <si>
+    <t>CNN: Shift invariance. We see lots of networks that generate spikes which are shifted in varying amounts. CNNs are known to be able to cope with shift variance</t>
+  </si>
+  <si>
+    <t>LSTM: Long short term memory networks are know to selectively remember/forget things about data. Looking at time series we see that many of the series are quite</t>
+  </si>
+  <si>
+    <t>active for a period, then become inactive for a relatively long period before becoming re-active. This can be thought of as the trajectory in phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space being in part of the chaotic attractor that occupies a region of reduced dimensionality (where each species defines a dimension). </t>
+  </si>
+  <si>
+    <t>This means that for part of the trajectory some species may not be active but may be 'waiting' until other species reach sufficient populations to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> allow the non-active populations to reactivate. LSTMs are good at forgetting or not paying attention to these latent periods, while remembering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the characteristics of the active periods. </t>
+  </si>
+  <si>
+    <t>CNN-LSTM: ¿Porque no los dos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the small values of connectance skew the loss scores? Need to look into this. </t>
+  </si>
+  <si>
+    <t>If not (above question), what does this easiness score mean?</t>
+  </si>
+  <si>
+    <t>I think I need to use Noramlized Mean Squared Error (NMSE) or Maybe root it (NRMSE), or re-scale the training data.</t>
+  </si>
+  <si>
+    <t>Easier to use NMSE because I won't have to retrain. Need to learn how to do this using tensorflow…</t>
+  </si>
+  <si>
+    <t>Currently using Mean Squared Error (MSE). Since it is not normalized, variables with dcales 'scales' will result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in different MSE for the same accuracy. I think it needs to be normalized. </t>
+  </si>
+  <si>
+    <t>Todo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,13 +261,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +337,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,26 +633,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -405,18 +666,47 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>200</v>
       </c>
@@ -426,8 +716,28 @@
       <c r="C5">
         <v>0.95227384999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.64345836999999995</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -437,8 +747,28 @@
       <c r="C6">
         <v>0.55383000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.36195572999999998</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>600</v>
       </c>
@@ -448,8 +778,28 @@
       <c r="C7">
         <v>0.7573725</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0.56174749999999996</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>800</v>
       </c>
@@ -459,8 +809,28 @@
       <c r="C8">
         <v>0.53658766000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0.28660432000000002</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -470,8 +840,20 @@
       <c r="C9">
         <v>0.51457434999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0.26870329999999998</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1200</v>
       </c>
@@ -481,8 +863,24 @@
       <c r="C10">
         <v>0.47229927999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0.23721127</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1400</v>
       </c>
@@ -492,8 +890,25 @@
       <c r="C11">
         <v>0.34031265999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>0.19061729999999999</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1600</v>
       </c>
@@ -503,8 +918,22 @@
       <c r="C12">
         <v>0.39927119999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0.38581019999999999</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1800</v>
       </c>
@@ -514,254 +943,1423 @@
       <c r="C13">
         <v>0.38940954</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0.29166113999999999</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2000</v>
       </c>
       <c r="B14" s="1">
         <v>0.48954996000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C14" s="1">
+        <v>0.3324995</v>
+      </c>
+      <c r="D14">
+        <v>0.2808272</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <f>MIN(B5:B14)</f>
+        <v>0.48954996000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN(C5:C14)</f>
+        <v>0.3324995</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN(D5:D14)</f>
+        <v>0.19061729999999999</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <f>AVERAGE(B16:D16)</f>
+        <v>0.33755558666666668</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>200</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.10475079</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>7.5396106000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D19">
+        <v>1.6084079000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>400</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>4.2484920000000002E-2</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>3.9525919999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D20">
+        <v>1.8496113000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>600</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.4064216999999999E-2</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>9.6531525000000007E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="D21">
+        <v>1.1833491999999999E-2</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>800</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1.9882690000000001E-2</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.10675564999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="D22">
+        <v>2.9284358E-2</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1000</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1.7791965999999999E-2</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>1.1006151E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="D23">
+        <v>3.4920029999999998E-2</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1200</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1.8258533E-2</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>4.4893540000000003E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="D24">
+        <v>2.0947444999999999E-2</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1400</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.3095623000000001E-2</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1.9760937999999999E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="D25">
+        <v>1.1385301E-2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>1600</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1.304637E-2</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1.5166697E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="D26" s="2">
+        <v>7.8425160000000008E-3</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>1800</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>8.9948614999999996E-3</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1.2166109E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="D27">
+        <v>1.4144021E-2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2000</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>1.1809792E-2</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>2.4036508000000002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D28" s="1">
+        <v>3.8017996E-3</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <f>MIN(B19:B28)</f>
+        <v>8.9948614999999996E-3</v>
+      </c>
+      <c r="C30" s="10">
+        <f>MIN(C19:C28)</f>
+        <v>1.1006151E-2</v>
+      </c>
+      <c r="D30" s="10">
+        <f>MIN(D19:D28)</f>
+        <v>3.8017996E-3</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <f>AVERAGE(B30:D30)</f>
+        <v>7.9342706999999991E-3</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>200</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>0.20047288999999999</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>0.34467282999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="D34">
+        <v>0.16618994000000001</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>400</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>0.22646028000000001</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>0.15145992999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="D35">
+        <v>0.19574496</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>600</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>0.22368418000000001</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>0.18044214</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="D36">
+        <v>0.2654878</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>800</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>0.23230065</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>0.19753522000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="D37">
+        <v>0.20968890000000001</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>1000</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>0.21160266999999999</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>0.16363375999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="D38">
+        <v>0.13525984999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>1200</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>0.22494958000000001</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>0.15752257</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="D39">
+        <v>0.19065942999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>1400</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>0.23052485</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>0.16931383</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="D40" s="3">
+        <v>0.16007404</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>1600</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>0.24055304999999999</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>0.15413236999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="D41">
+        <v>0.18811005</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>1800</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>0.22971706</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>0.14024374000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="D42" s="1">
+        <v>0.1176643</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>2000</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C43" s="1">
         <v>0.11809355000000001</v>
       </c>
+      <c r="D43">
+        <v>0.15554106000000001</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <f>MIN(B34:B43)</f>
+        <v>0.20047288999999999</v>
+      </c>
+      <c r="C45" s="1">
+        <f>MIN(C34:C43)</f>
+        <v>0.11809355000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <f>MIN(D34:D43)</f>
+        <v>0.1176643</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <f>AVERAGE(B45:D45)</f>
+        <v>0.14541024666666666</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="53" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+    </row>
+    <row r="54" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="69" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H70" s="8"/>
+      <c r="I70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+    </row>
+    <row r="71" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H71" s="8"/>
+      <c r="I71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+    </row>
+    <row r="72" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H77" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H86" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="95" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H95" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+    </row>
+    <row r="96" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H96" s="4"/>
+      <c r="I96" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+    </row>
+    <row r="97" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+    </row>
+    <row r="98" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+    </row>
+    <row r="99" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H99" s="4"/>
+      <c r="I99" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+    </row>
+    <row r="100" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+    </row>
+    <row r="101" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+    </row>
+    <row r="102" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H102" s="4"/>
+      <c r="I102" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+    </row>
+    <row r="103" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+    </row>
+    <row r="104" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
